--- a/DOWNLOADS/EDITAIS/U_928684_E_900142025/U_928684_E_900142025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_928684_E_900142025/U_928684_E_900142025_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="33">
   <si>
     <t>Nº</t>
   </si>
@@ -43,72 +43,6 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>Microfone Microfone Tipo: Gooseneck (Pescoço De Ganso/Easyflex), Alimentação: Phanton-Power/ 48, Resposta Freqüência: 50 Hz A 17 KhzHZ, Características Adicionais: Cápsula CardióideConector Xlr Condensador Cardió, Cor: Preta, Dimensão Da Haste: 45CM</t>
   </si>
   <si>
@@ -169,61 +103,7 @@
     <t>Adaptador Adaptador Tipo: Plugue, Conexão: P2/P10 Estereo, Aplicação: Equipamentos Eletrônicos</t>
   </si>
   <si>
-    <t>Microfone gooseneck marca TSI modelo MMF-302.</t>
-  </si>
-  <si>
-    <t>Sistema de dois microfones de mão sem fios, dois canais. Receptor de 2 canais compatível com pelo menos 10 canais. Gerenciamento automático de frequência e sincronização via canal remoto para fácil configuração. Frequências UHF selecionáveis. Tecnologia wireless: analógico UHF. Varredura de canal RF: análise automática. Modulação: FM. Tipo de receptor: mesa. Antena: 2 x internas. Entrada e saída de áudio: 2x saída XLR de 3 pinos macho linha/microfone (balanceada); 2x saída 1/4" TS linha/microfone (não balanceada); resposta de frequência: 50Hz ≥ 15 kHz – 3 dB. Tipo de transmissor: portátil. Potência de saída de RF: 10 mw. Silenciamento: interruptor liga/desliga. Antena: interna. Requisitos de energia: pilhas. Tipo de pilhas: 2 x AA. Display e indicadores: 1 x LCD (status da bateria, canal, energia). Tipo de microfone: microfone de mão portátil; cor: preta; campo de som: mono; cápsula: dinâmico; padrão polar: cardioide. (Marca/modelo de referência: Shure BLX288BRPG58-J10, mas essa especificação pode ser atendida por pelo menos mais uma marca/modelo, o Sennheiser XSW 1-835 Dual)</t>
-  </si>
-  <si>
-    <t>Interface de áudio dois canais. Deverá ter 2 entradas de áudio analógicas ajustáveis para nível de linha ou instrumento com conector XLR/TRS. Saídas principais a depender do equipamento ofertado. Saída de fone de ouvido. Possibilidade de ativação de Phantom Power +48v DC. Conexão de dados e alimentação AC via USB. Suportar sistema operacional Windows. Botões independentes para ajustes de volume do fone de ouvido, gain de entrada e saída. (Marca/modelo de referência: Behringer UMC204HD, mas a especificação permite a concorrência de pelo menos mais uma marca/modelo, como M-Audio M-Track Duo)</t>
-  </si>
-  <si>
-    <t>Fone de ouvido de uso profissional estúdio. Headphone de estúdio para uso em ambientes com ruídos para monitoramento de áudio com as seguintes características mínimas: Cor preta; Almofadas auriculares dos fones de ouvido revestida com material de couro ou similar; Acoplamento de ouvido circo-auricular; Fones dobráveis e giratórios para guardar durante transporte; Conector 3,5mm estéreo Mini Jack; adaptador, banhado a ouro, conector P2 para P10 de 1/4"" (6.3mm); Conector TRS; Impedância acima de 23Ω; Frequência de resposta 5-35000 Hz ou 10-22000 Hz ou 18-20000 Hz ou 10-28000 Hz; nível de pressão sonora 97 dB; cabo conectável em um dos fones. (Marca/modelo de referência: Shure SRH440A, mas a especificação permite a concorrência de outras marcas/modelos, como Sennheiser HD 569)</t>
-  </si>
-  <si>
-    <t>Amplificador de som com no mínimo 2 canais independentes, potência de 750W em 4Ω, 500W em 8Ω e 1500W em bridge 8Ω. Modos de operação estéreo, paralelo e bridge-mono. Sensibilidade de entrada selecionável pelo usuário. Resfriamento por ar forçado. Entradas XLR eletronicamente balanceadas. Dois controles de nível independentes, interruptor de alimentação, LED de alimentação e LEDs que indicam presença de sinal, clipe e falha para cada canal. Proteção contra curtos-circuitos, operação sem carga, pops de ligar/desligar e interferências de radiofrequência. Resposta de frequência de 20 Hz – 20 kHz. Chassi de montagem em rack de 2U. Alimentação 220V ~ 50/60 Hz. (Marca/modelo de referência: Behringer NX6000, mas essa especificação pode ser atendida por outras marcas/modelos, como Crown XLi 3500 e QSC GX5)</t>
-  </si>
-  <si>
-    <t>Smart TV de 75”, com resolução mínima de 4K UHD (3840 x 2160 pixels). Tecnologia Mini LED. Taxa de atualização mínima de 60 Hz e tempo de resposta máximo de 8 ms. Alimentação bivolt automático. Wi-fi integrado. Conexões mínimas de entrada: 2 HDMI, 1 USB, 1 LAN RJ45 (Ethernet). Ajustes de imagem para controle de brilho, contraste e temperatura de cor. Compatível com montagem em parede (VESA 400x400 ou superior). Eficiência energética classe A ou superior. (Marca/modelo de referência: LG Ultra HD 75UT8050, mas essa especificação também pode ser atendida pelas marcas/modelos Samsung 75DU7700 e TCL 75P755)</t>
-  </si>
-  <si>
-    <t>Smart TV de 43”, com resolução 4K UHD (3840 x 2160 pixels). Tecnologia LED. Taxa de atualização mínima de 60 Hz e tempo de resposta máximo de 8 ms. Alimentação bivolt automático. Wi-fi integrado. Conexões mínimas de entrada: 2 HDMI, 1 USB, 1 LAN RJ45 (Ethernet). Compatível com montagem em parede (VESA 200x200 ou superior). Eficiência energética classe A ou superior. (Marca/modelo de referência: TCL 43P755, mas essa especificação pode ser atendida por outras marcas/modelos, como LG 43UT8000PSA e Samsung 43DU7700)</t>
-  </si>
-  <si>
-    <t>Projetor Multimídia Tipo Lâmpada: Led, Voltagem: BivoltV, Quantidade Entradas Vídeo: 2UN, Tipo Zoom: Motorizado, Tipo: Retroprojeção, Teto, Características Adicionais: Conexão: Usb, Wi-Fi E Via Miracast, Luminosidade Mínima: 5.000LM, Tipo Projeção: Frontal, Resolução: 1920 X 1200</t>
-  </si>
-  <si>
-    <t>Controlador de estúdio com interface de hardware programável para produção de conteúdo ao vivo, com no mínimo 15 teclas físicas personalizáveis com display colorido individual e integração nativa com softwares de streaming, gravação e automação como OBS Studio, Streamlabs, vMix, Twitch, YouTube e similares; o equipamento deve possibilitar a criação de ações em série (macros), múltiplos perfis de uso com alternância rápida, e exibição de ícones dinâmicos nos botões; deve contar com conexão USB direta (sem necessidade de alimentação externa) e compatibilidade com sistemas Windows e macOS; devem ser aceitos modelos com design compacto, voltados a criadores de conteúdo e operadores de estúdio, desde que possuam botões retroiluminados configuráveis, software próprio de gerenciamento e construção robusta em plástico de alta resistência ou estrutura metálica; não serão aceitos equipamentos com menos de 15 botões físicos personalizáveis, teclas sem exibição de ícone digital, ou dispositivos que exijam programação avançada para operação básica. (Marca/modelo de referência: Stream Deck Elgato MK.2)</t>
-  </si>
-  <si>
-    <t>Suporte pedestal com rodas e altura regulável para TVs de 32’’ a 70’’. Suporte com capacidade para TV com peso mínimo de 45kg. Ajustes de altura e inclinação do televisor. Altura regulável com trava de ajuste. Incluso com bandeja ajustável para aparelhos de multimídia com peso de até 4kg. Rodízios para movimentar o pedestal em superfícies planas e com sistema de trava. Pintura epóxi na cor preta. Padrão VESA.</t>
-  </si>
-  <si>
-    <t>Suporte articulado para 2 (dois) monitores de 17" a 35”. Fixação em mesa por morsa ou parafusado. Pistão a gás. Deve suportar 2 (dois) monitores de até 6 kg cada. Braços articulados. Regulagem de altura. Inclinação da tela. Giro lateral de 180° (esquerda e direita). Giro frontal de 360º (retrato/paisagem). Furação padrão VESA 75x75 e 100x100.</t>
-  </si>
-  <si>
-    <t>Descrição de referência para o item Nº 13 não encontrada no texto do PDF.</t>
-  </si>
-  <si>
-    <t>Conversor de áudio e vídeo SDI para HDMI. Conversão SD/HD-SDI para HDMI; 1 conector de entrada de vídeo SD/HD-SDI com áudio embutido; saída de vídeo em HDMI com áudio embutido. Cabo USB e fonte de alimentação AC incluída. (Marca/modelo de referência: NEOiD Micro Conversor SDI para HDMI, mas essa especificação pode ser atendida por outras marcas/modelos, como Blackmagic Micro Converter SDI to HDMI 3G e Videoair)</t>
-  </si>
-  <si>
-    <t>Conversor de áudio e vídeo HDMI para SDI. Conversão HDMI para SD/HD-SDI; 1 conector de entrada de vídeo HDMI com áudio embutido; saída de vídeo em SD/HD-SDI com áudio embutido. Cabo USB-C e fonte de alimentação AC incluída. (Marca/modelo de referência: NEOiD Micro Conversor HDMI para SDI, mas essa especificação pode ser atendida por outras marcas/modelos, como Blackmagic Micro Converter HDMI to SDI 6G e Datavideo Dac-9p)</t>
-  </si>
-  <si>
-    <t>Adaptador conversor de DisplayPort para HDMI 4k, HDMI fêmea, DisplayPort macho.</t>
-  </si>
-  <si>
-    <t>Placa Captura Vídeo Padrão: Hdmi/Usb 3.0, Características Adicionais: Compatível Com Windows 7, 8, 8.1, 10 Ou Superior, Resolução De Entrada: 1x Hdmi 2.0 - 4k/60hz, Resolução De Saída: Usb-3.0 E Hdmi-Out Monitor: 4k/60hz</t>
-  </si>
-  <si>
-    <t>Cabo Extensor Tipo: Extensor Hdmi, Tipo Saída: Hdmi Fêmea X Rj45 Fêmea, Comprimento: 60M, Aplicação: Transmissão De Vídeo À Distância</t>
-  </si>
-  <si>
-    <t>Ferro de solda de 34 W, potência 34 W; voltagem 110/127 V, temperatura máxima 450°C; comprimento mínimo de 200 mm; possibilidade de substituir ponteira; utilizar ponteira cônica de 1,2 mm; utilizar ponteira fenda de 1,2 mm; resistência intercambiável para reposição.</t>
-  </si>
-  <si>
-    <t>Adaptador P2 para P10, com entrada P2 3.5mm e saída P10 6.5mm. Material de revestimento dourado do conector. Som estéreo blindado.</t>
+    <t>IA NÃO RESPONDEU</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -626,14 +506,14 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -645,24 +525,24 @@
         <v>2218.41</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -674,24 +554,24 @@
         <v>6524.91</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -703,24 +583,24 @@
         <v>894.3099999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -729,24 +609,24 @@
         <v>4233.12</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -755,24 +635,24 @@
         <v>2612.36</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -784,24 +664,24 @@
         <v>6627.58</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -810,24 +690,24 @@
         <v>10049.76</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -836,24 +716,24 @@
         <v>3965.74</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -865,24 +745,24 @@
         <v>15683.95</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -894,24 +774,24 @@
         <v>1384.7</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -923,24 +803,24 @@
         <v>572.5</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -949,24 +829,24 @@
         <v>1778.16</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" t="s">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -975,24 +855,24 @@
         <v>1072.22</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>22</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1004,24 +884,24 @@
         <v>600.9299999999999</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>23</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -1030,24 +910,24 @@
         <v>1204.08</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>24</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1059,24 +939,24 @@
         <v>836.51</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>25</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1088,24 +968,24 @@
         <v>1513.04</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>26</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1114,24 +994,24 @@
         <v>103.82</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>27</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1143,24 +1023,24 @@
         <v>2227.49</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>28</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1169,24 +1049,24 @@
         <v>1458.86</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>29</v>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1198,24 +1078,24 @@
         <v>51.29</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>30</v>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -1227,13 +1107,13 @@
         <v>149.45</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
